--- a/mosip_master/xlsx/reg_working_nonworking.xlsx
+++ b/mosip_master/xlsx/reg_working_nonworking.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1091460\Downloads\mosip-data-1.2.0.1\mosip-data-1.2.0.1\mosip_master\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D568A28-A35A-4CB3-9CF3-615C752739B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,41 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="8">
   <si>
-    <t xml:space="preserve">lang_code</t>
+    <t>lang_code</t>
   </si>
   <si>
-    <t xml:space="preserve">regcntr_id</t>
+    <t>regcntr_id</t>
   </si>
   <si>
-    <t xml:space="preserve">day_code</t>
+    <t>day_code</t>
   </si>
   <si>
-    <t xml:space="preserve">is_working</t>
+    <t>is_working</t>
   </si>
   <si>
-    <t xml:space="preserve">is_active</t>
+    <t>is_active</t>
   </si>
   <si>
-    <t xml:space="preserve">eng</t>
+    <t>eng</t>
   </si>
   <si>
-    <t xml:space="preserve">FALSE</t>
+    <t>FALSE</t>
   </si>
   <si>
-    <t xml:space="preserve">TRUE</t>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -63,25 +64,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -100,100 +85,368 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1757"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D99" activeCellId="0" sqref="D99"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="8.43"/>
+    <col min="2" max="5" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -210,14 +463,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
         <v>10001</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -227,14 +480,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
         <v>10001</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -244,14 +497,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
         <v>10001</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>103</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -261,14 +514,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
         <v>10001</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -278,14 +531,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>10001</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>105</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -295,14 +548,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
         <v>10001</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>106</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -312,14 +565,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
         <v>10001</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>107</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -329,14 +582,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
         <v>10002</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -346,14 +599,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
         <v>10002</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>102</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -363,14 +616,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
         <v>10002</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>103</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -380,14 +633,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
         <v>10002</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>104</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -397,14 +650,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
         <v>10002</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>105</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -414,14 +667,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
         <v>10002</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>106</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -431,14 +684,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
         <v>10002</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>107</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -448,14 +701,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
         <v>10003</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>101</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -465,14 +718,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
         <v>10003</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>102</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -482,14 +735,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
         <v>10003</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>103</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -499,14 +752,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
         <v>10003</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -516,14 +769,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
         <v>10003</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>105</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -533,14 +786,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
         <v>10003</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>106</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -550,14 +803,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="n">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
         <v>10003</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>107</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -567,14 +820,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="n">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
         <v>10004</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>101</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -584,14 +837,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="n">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
         <v>10004</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>102</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -601,14 +854,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="n">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
         <v>10004</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="1">
         <v>103</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -618,14 +871,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1" t="n">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
         <v>10004</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="1">
         <v>104</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -635,14 +888,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="n">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
         <v>10004</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="1">
         <v>105</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -652,14 +905,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="n">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
         <v>10004</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="1">
         <v>106</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -669,14 +922,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="n">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
         <v>10004</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="1">
         <v>107</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -686,14 +939,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="n">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
         <v>10005</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="1">
         <v>101</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -703,14 +956,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="n">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
         <v>10005</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="1">
         <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -720,14 +973,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="n">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
         <v>10005</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="1">
         <v>103</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -737,14 +990,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1" t="n">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
         <v>10005</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="1">
         <v>104</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -754,14 +1007,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1" t="n">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
         <v>10005</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="1">
         <v>105</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -771,14 +1024,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1" t="n">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
         <v>10005</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="1">
         <v>106</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -788,14 +1041,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1" t="n">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
         <v>10005</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="1">
         <v>107</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -805,14 +1058,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="1" t="n">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
         <v>10006</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="1">
         <v>101</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -822,14 +1075,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="1" t="n">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
         <v>10006</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="1">
         <v>102</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -839,14 +1092,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1" t="n">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
         <v>10006</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C39" s="1">
         <v>103</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -856,14 +1109,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1" t="n">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
         <v>10006</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C40" s="1">
         <v>104</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -873,14 +1126,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1" t="n">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1">
         <v>10006</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="1">
         <v>105</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -890,14 +1143,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1" t="n">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
         <v>10006</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="1">
         <v>106</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -907,14 +1160,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1" t="n">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1">
         <v>10006</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C43" s="1">
         <v>107</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -924,14 +1177,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="1" t="n">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1">
         <v>10007</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C44" s="1">
         <v>101</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -941,14 +1194,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="1" t="n">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1">
         <v>10007</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="1">
         <v>102</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -958,14 +1211,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="1" t="n">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1">
         <v>10007</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C46" s="1">
         <v>103</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -975,14 +1228,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="1" t="n">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1">
         <v>10007</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C47" s="1">
         <v>104</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -992,14 +1245,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="1" t="n">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1">
         <v>10007</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C48" s="1">
         <v>105</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -1009,14 +1262,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="1" t="n">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1">
         <v>10007</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C49" s="1">
         <v>106</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -1026,14 +1279,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="1" t="n">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1">
         <v>10007</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C50" s="1">
         <v>107</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -1043,14 +1296,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="1" t="n">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1">
         <v>10008</v>
       </c>
-      <c r="C51" s="1" t="n">
+      <c r="C51" s="1">
         <v>101</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -1060,99 +1313,99 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="1" t="n">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1">
         <v>10008</v>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="C52" s="1">
         <v>102</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="1" t="n">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1">
         <v>10008</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="C53" s="1">
         <v>103</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="1" t="n">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="1">
         <v>10008</v>
       </c>
-      <c r="C54" s="1" t="n">
+      <c r="C54" s="1">
         <v>104</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="1" t="n">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1">
         <v>10008</v>
       </c>
-      <c r="C55" s="1" t="n">
+      <c r="C55" s="1">
         <v>105</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="1" t="n">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1">
         <v>10008</v>
       </c>
-      <c r="C56" s="1" t="n">
+      <c r="C56" s="1">
         <v>106</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="1" t="n">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="1">
         <v>10008</v>
       </c>
-      <c r="C57" s="1" t="n">
+      <c r="C57" s="1">
         <v>107</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -1162,14 +1415,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="1" t="n">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1">
         <v>10009</v>
       </c>
-      <c r="C58" s="1" t="n">
+      <c r="C58" s="1">
         <v>101</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -1179,14 +1432,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="1" t="n">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1">
         <v>10009</v>
       </c>
-      <c r="C59" s="1" t="n">
+      <c r="C59" s="1">
         <v>102</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -1196,14 +1449,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="1" t="n">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1">
         <v>10009</v>
       </c>
-      <c r="C60" s="1" t="n">
+      <c r="C60" s="1">
         <v>103</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -1213,14 +1466,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="1" t="n">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1">
         <v>10009</v>
       </c>
-      <c r="C61" s="1" t="n">
+      <c r="C61" s="1">
         <v>104</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -1230,14 +1483,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="1" t="n">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="1">
         <v>10009</v>
       </c>
-      <c r="C62" s="1" t="n">
+      <c r="C62" s="1">
         <v>105</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -1247,14 +1500,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="1" t="n">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="1">
         <v>10009</v>
       </c>
-      <c r="C63" s="1" t="n">
+      <c r="C63" s="1">
         <v>106</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -1264,14 +1517,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="1" t="n">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="1">
         <v>10009</v>
       </c>
-      <c r="C64" s="1" t="n">
+      <c r="C64" s="1">
         <v>107</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -1281,14 +1534,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="1" t="n">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="1">
         <v>10010</v>
       </c>
-      <c r="C65" s="1" t="n">
+      <c r="C65" s="1">
         <v>101</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -1298,14 +1551,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="1" t="n">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="1">
         <v>10010</v>
       </c>
-      <c r="C66" s="1" t="n">
+      <c r="C66" s="1">
         <v>102</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -1315,14 +1568,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="1" t="n">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="1">
         <v>10010</v>
       </c>
-      <c r="C67" s="1" t="n">
+      <c r="C67" s="1">
         <v>103</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -1332,14 +1585,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="1" t="n">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1">
         <v>10010</v>
       </c>
-      <c r="C68" s="1" t="n">
+      <c r="C68" s="1">
         <v>104</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -1349,14 +1602,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="1" t="n">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1">
         <v>10010</v>
       </c>
-      <c r="C69" s="1" t="n">
+      <c r="C69" s="1">
         <v>105</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -1366,14 +1619,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="1" t="n">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="1">
         <v>10010</v>
       </c>
-      <c r="C70" s="1" t="n">
+      <c r="C70" s="1">
         <v>106</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -1383,14 +1636,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="1" t="n">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="1">
         <v>10010</v>
       </c>
-      <c r="C71" s="1" t="n">
+      <c r="C71" s="1">
         <v>107</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -1400,14 +1653,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="1" t="n">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="1">
         <v>10011</v>
       </c>
-      <c r="C72" s="1" t="n">
+      <c r="C72" s="1">
         <v>101</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -1417,99 +1670,99 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="1" t="n">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="1">
         <v>10011</v>
       </c>
-      <c r="C73" s="1" t="n">
+      <c r="C73" s="1">
         <v>102</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="1" t="n">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="1">
         <v>10011</v>
       </c>
-      <c r="C74" s="1" t="n">
+      <c r="C74" s="1">
         <v>103</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="1" t="n">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="1">
         <v>10011</v>
       </c>
-      <c r="C75" s="1" t="n">
+      <c r="C75" s="1">
         <v>104</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="1" t="n">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="1">
         <v>10011</v>
       </c>
-      <c r="C76" s="1" t="n">
+      <c r="C76" s="1">
         <v>105</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" s="1" t="n">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="1">
         <v>10011</v>
       </c>
-      <c r="C77" s="1" t="n">
+      <c r="C77" s="1">
         <v>106</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="1" t="n">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="1">
         <v>10011</v>
       </c>
-      <c r="C78" s="1" t="n">
+      <c r="C78" s="1">
         <v>107</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -1519,14 +1772,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="1" t="n">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="1">
         <v>10012</v>
       </c>
-      <c r="C79" s="1" t="n">
+      <c r="C79" s="1">
         <v>101</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -1536,14 +1789,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80" s="1" t="n">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="1">
         <v>10012</v>
       </c>
-      <c r="C80" s="1" t="n">
+      <c r="C80" s="1">
         <v>102</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -1553,14 +1806,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" s="1" t="n">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="1">
         <v>10012</v>
       </c>
-      <c r="C81" s="1" t="n">
+      <c r="C81" s="1">
         <v>103</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -1570,14 +1823,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" s="1" t="n">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="1">
         <v>10012</v>
       </c>
-      <c r="C82" s="1" t="n">
+      <c r="C82" s="1">
         <v>104</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -1587,14 +1840,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B83" s="1" t="n">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
         <v>10012</v>
       </c>
-      <c r="C83" s="1" t="n">
+      <c r="C83" s="1">
         <v>105</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -1604,14 +1857,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" s="1" t="n">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
         <v>10012</v>
       </c>
-      <c r="C84" s="1" t="n">
+      <c r="C84" s="1">
         <v>106</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -1621,14 +1874,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" s="1" t="n">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
         <v>10012</v>
       </c>
-      <c r="C85" s="1" t="n">
+      <c r="C85" s="1">
         <v>107</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -1638,14 +1891,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" s="1" t="n">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
         <v>10013</v>
       </c>
-      <c r="C86" s="1" t="n">
+      <c r="C86" s="1">
         <v>101</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -1655,14 +1908,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="1" t="n">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
         <v>10013</v>
       </c>
-      <c r="C87" s="1" t="n">
+      <c r="C87" s="1">
         <v>102</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -1672,14 +1925,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="1" t="n">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
         <v>10013</v>
       </c>
-      <c r="C88" s="1" t="n">
+      <c r="C88" s="1">
         <v>103</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -1689,14 +1942,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="1" t="n">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
         <v>10013</v>
       </c>
-      <c r="C89" s="1" t="n">
+      <c r="C89" s="1">
         <v>104</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -1706,14 +1959,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" s="1" t="n">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
         <v>10013</v>
       </c>
-      <c r="C90" s="1" t="n">
+      <c r="C90" s="1">
         <v>105</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -1723,14 +1976,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" s="1" t="n">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
         <v>10013</v>
       </c>
-      <c r="C91" s="1" t="n">
+      <c r="C91" s="1">
         <v>106</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -1740,14 +1993,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" s="1" t="n">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
         <v>10013</v>
       </c>
-      <c r="C92" s="1" t="n">
+      <c r="C92" s="1">
         <v>107</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -1757,14 +2010,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B93" s="1" t="n">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
         <v>10014</v>
       </c>
-      <c r="C93" s="1" t="n">
+      <c r="C93" s="1">
         <v>101</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -1774,14 +2027,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" s="1" t="n">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
         <v>10014</v>
       </c>
-      <c r="C94" s="1" t="n">
+      <c r="C94" s="1">
         <v>102</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -1791,14 +2044,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" s="1" t="n">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
         <v>10014</v>
       </c>
-      <c r="C95" s="1" t="n">
+      <c r="C95" s="1">
         <v>103</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -1808,14 +2061,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" s="1" t="n">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
         <v>10014</v>
       </c>
-      <c r="C96" s="1" t="n">
+      <c r="C96" s="1">
         <v>104</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -1825,14 +2078,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" s="1" t="n">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
         <v>10014</v>
       </c>
-      <c r="C97" s="1" t="n">
+      <c r="C97" s="1">
         <v>105</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -1842,14 +2095,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" s="1" t="n">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
         <v>10014</v>
       </c>
-      <c r="C98" s="1" t="n">
+      <c r="C98" s="1">
         <v>106</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -1859,14 +2112,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B99" s="1" t="n">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
         <v>10014</v>
       </c>
-      <c r="C99" s="1" t="n">
+      <c r="C99" s="1">
         <v>107</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -1876,14 +2129,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100" s="1" t="n">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
         <v>10015</v>
       </c>
-      <c r="C100" s="1" t="n">
+      <c r="C100" s="1">
         <v>101</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -1893,14 +2146,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" s="1" t="n">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
         <v>10015</v>
       </c>
-      <c r="C101" s="1" t="n">
+      <c r="C101" s="1">
         <v>102</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -1910,14 +2163,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" s="1" t="n">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
         <v>10015</v>
       </c>
-      <c r="C102" s="1" t="n">
+      <c r="C102" s="1">
         <v>103</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -1927,14 +2180,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B103" s="1" t="n">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
         <v>10015</v>
       </c>
-      <c r="C103" s="1" t="n">
+      <c r="C103" s="1">
         <v>104</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -1944,14 +2197,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" s="1" t="n">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
         <v>10015</v>
       </c>
-      <c r="C104" s="1" t="n">
+      <c r="C104" s="1">
         <v>105</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -1961,14 +2214,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B105" s="1" t="n">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
         <v>10015</v>
       </c>
-      <c r="C105" s="1" t="n">
+      <c r="C105" s="1">
         <v>106</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -1978,14 +2231,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" s="1" t="n">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
         <v>10015</v>
       </c>
-      <c r="C106" s="1" t="n">
+      <c r="C106" s="1">
         <v>107</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -1995,13 +2248,7049 @@
         <v>7</v>
       </c>
     </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C107" s="1">
+        <v>101</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C108" s="1">
+        <v>102</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C109" s="1">
+        <v>103</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C110" s="1">
+        <v>104</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C111" s="1">
+        <v>105</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C112" s="1">
+        <v>106</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C113" s="1">
+        <v>107</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C114" s="1">
+        <v>101</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C115" s="1">
+        <v>102</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C116" s="1">
+        <v>103</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C117" s="1">
+        <v>104</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C118" s="1">
+        <v>105</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C119" s="1">
+        <v>106</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C120" s="1">
+        <v>107</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C121" s="1">
+        <v>101</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C122" s="1">
+        <v>102</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C123" s="1">
+        <v>103</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C124" s="1">
+        <v>104</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C125" s="1">
+        <v>105</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C126" s="1">
+        <v>106</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C127" s="1">
+        <v>107</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C128" s="1">
+        <v>101</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C129" s="1">
+        <v>102</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C130" s="1">
+        <v>103</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C131" s="1">
+        <v>104</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C132" s="1">
+        <v>105</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C133" s="1">
+        <v>106</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C134" s="1">
+        <v>107</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C135" s="1">
+        <v>101</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C136" s="1">
+        <v>102</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C137" s="1">
+        <v>103</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C138" s="1">
+        <v>104</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C139" s="1">
+        <v>105</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C140" s="1">
+        <v>106</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C141" s="1">
+        <v>107</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C142" s="1">
+        <v>101</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C143" s="1">
+        <v>102</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C144" s="1">
+        <v>103</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C145" s="1">
+        <v>104</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C146" s="1">
+        <v>105</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C147" s="1">
+        <v>106</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C148" s="1">
+        <v>107</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C149" s="1">
+        <v>101</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C150" s="1">
+        <v>102</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C151" s="1">
+        <v>103</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C152" s="1">
+        <v>104</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C153" s="1">
+        <v>105</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C154" s="1">
+        <v>106</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C155" s="1">
+        <v>107</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C156" s="1">
+        <v>101</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C157" s="1">
+        <v>102</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C158" s="1">
+        <v>103</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C159" s="1">
+        <v>104</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C160" s="1">
+        <v>105</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C161" s="1">
+        <v>106</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C162" s="1">
+        <v>107</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C163" s="1">
+        <v>101</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C164" s="1">
+        <v>102</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C165" s="1">
+        <v>103</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C166" s="1">
+        <v>104</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C167" s="1">
+        <v>105</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C168" s="1">
+        <v>106</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C169" s="1">
+        <v>107</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C170" s="1">
+        <v>101</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C171" s="1">
+        <v>102</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C172" s="1">
+        <v>103</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C173" s="1">
+        <v>104</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C174" s="1">
+        <v>105</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C175" s="1">
+        <v>106</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C176" s="1">
+        <v>107</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C177" s="1">
+        <v>101</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C178" s="1">
+        <v>102</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C179" s="1">
+        <v>103</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C180" s="1">
+        <v>104</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C181" s="1">
+        <v>105</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C182" s="1">
+        <v>106</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C183" s="1">
+        <v>107</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C184" s="1">
+        <v>101</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C185" s="1">
+        <v>102</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C186" s="1">
+        <v>103</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C187" s="1">
+        <v>104</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C188" s="1">
+        <v>105</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C189" s="1">
+        <v>106</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C190" s="1">
+        <v>107</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C191" s="1">
+        <v>101</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C192" s="1">
+        <v>102</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C193" s="1">
+        <v>103</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C194" s="1">
+        <v>104</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C195" s="1">
+        <v>105</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C196" s="1">
+        <v>106</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C197" s="1">
+        <v>107</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C198" s="1">
+        <v>101</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C199" s="1">
+        <v>102</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C200" s="1">
+        <v>103</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C201" s="1">
+        <v>104</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C202" s="1">
+        <v>105</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C203" s="1">
+        <v>106</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C204" s="1">
+        <v>107</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C205" s="1">
+        <v>101</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C206" s="1">
+        <v>102</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C207" s="1">
+        <v>103</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C208" s="1">
+        <v>104</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C209" s="1">
+        <v>105</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C210" s="1">
+        <v>106</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C211" s="1">
+        <v>107</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C212" s="1">
+        <v>101</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C213" s="1">
+        <v>102</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C214" s="1">
+        <v>103</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C215" s="1">
+        <v>104</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C216" s="1">
+        <v>105</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C217" s="1">
+        <v>106</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C218" s="1">
+        <v>107</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C219" s="1">
+        <v>101</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C220" s="1">
+        <v>102</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C221" s="1">
+        <v>103</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C222" s="1">
+        <v>104</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>5</v>
+      </c>
+      <c r="B223" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C223" s="1">
+        <v>105</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C224" s="1">
+        <v>106</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C225" s="1">
+        <v>107</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C226" s="1">
+        <v>101</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C227" s="1">
+        <v>102</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C228" s="1">
+        <v>103</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C229" s="1">
+        <v>104</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C230" s="1">
+        <v>105</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C231" s="1">
+        <v>106</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C232" s="1">
+        <v>107</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C233" s="1">
+        <v>101</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C234" s="1">
+        <v>102</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C235" s="1">
+        <v>103</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C236" s="1">
+        <v>104</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C237" s="1">
+        <v>105</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C238" s="1">
+        <v>106</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C239" s="1">
+        <v>107</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C240" s="1">
+        <v>101</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C241" s="1">
+        <v>102</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C242" s="1">
+        <v>103</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C243" s="1">
+        <v>104</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C244" s="1">
+        <v>105</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C245" s="1">
+        <v>106</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C246" s="1">
+        <v>107</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C247" s="1">
+        <v>101</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C248" s="1">
+        <v>102</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>5</v>
+      </c>
+      <c r="B249" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C249" s="1">
+        <v>103</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C250" s="1">
+        <v>104</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C251" s="1">
+        <v>105</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C252" s="1">
+        <v>106</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C253" s="1">
+        <v>107</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>5</v>
+      </c>
+      <c r="B254" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C254" s="1">
+        <v>101</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C255" s="1">
+        <v>102</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C256" s="1">
+        <v>103</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C257" s="1">
+        <v>104</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C258" s="1">
+        <v>105</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C259" s="1">
+        <v>106</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C260" s="1">
+        <v>107</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C261" s="1">
+        <v>101</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C262" s="1">
+        <v>102</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C263" s="1">
+        <v>103</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C264" s="1">
+        <v>104</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C265" s="1">
+        <v>105</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C266" s="1">
+        <v>106</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>5</v>
+      </c>
+      <c r="B267" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C267" s="1">
+        <v>107</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C268" s="1">
+        <v>101</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C269" s="1">
+        <v>102</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C270" s="1">
+        <v>103</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C271" s="1">
+        <v>104</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C272" s="1">
+        <v>105</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>5</v>
+      </c>
+      <c r="B273" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C273" s="1">
+        <v>106</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C274" s="1">
+        <v>107</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>5</v>
+      </c>
+      <c r="B275" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C275" s="1">
+        <v>101</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C276" s="1">
+        <v>102</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>5</v>
+      </c>
+      <c r="B277" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C277" s="1">
+        <v>103</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>5</v>
+      </c>
+      <c r="B278" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C278" s="1">
+        <v>104</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>5</v>
+      </c>
+      <c r="B279" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C279" s="1">
+        <v>105</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>5</v>
+      </c>
+      <c r="B280" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C280" s="1">
+        <v>106</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>5</v>
+      </c>
+      <c r="B281" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C281" s="1">
+        <v>107</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>5</v>
+      </c>
+      <c r="B282" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C282" s="1">
+        <v>101</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>5</v>
+      </c>
+      <c r="B283" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C283" s="1">
+        <v>102</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>5</v>
+      </c>
+      <c r="B284" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C284" s="1">
+        <v>103</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>5</v>
+      </c>
+      <c r="B285" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C285" s="1">
+        <v>104</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>5</v>
+      </c>
+      <c r="B286" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C286" s="1">
+        <v>105</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C287" s="1">
+        <v>106</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>5</v>
+      </c>
+      <c r="B288" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C288" s="1">
+        <v>107</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>5</v>
+      </c>
+      <c r="B289" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C289" s="1">
+        <v>101</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>5</v>
+      </c>
+      <c r="B290" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C290" s="1">
+        <v>102</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>5</v>
+      </c>
+      <c r="B291" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C291" s="1">
+        <v>103</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>5</v>
+      </c>
+      <c r="B292" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C292" s="1">
+        <v>104</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>5</v>
+      </c>
+      <c r="B293" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C293" s="1">
+        <v>105</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>5</v>
+      </c>
+      <c r="B294" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C294" s="1">
+        <v>106</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>5</v>
+      </c>
+      <c r="B295" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C295" s="1">
+        <v>107</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>5</v>
+      </c>
+      <c r="B296" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C296" s="1">
+        <v>101</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>5</v>
+      </c>
+      <c r="B297" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C297" s="1">
+        <v>102</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>5</v>
+      </c>
+      <c r="B298" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C298" s="1">
+        <v>103</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>5</v>
+      </c>
+      <c r="B299" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C299" s="1">
+        <v>104</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>5</v>
+      </c>
+      <c r="B300" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C300" s="1">
+        <v>105</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>5</v>
+      </c>
+      <c r="B301" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C301" s="1">
+        <v>106</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>5</v>
+      </c>
+      <c r="B302" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C302" s="1">
+        <v>107</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>5</v>
+      </c>
+      <c r="B303" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C303" s="1">
+        <v>101</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>5</v>
+      </c>
+      <c r="B304" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C304" s="1">
+        <v>102</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>5</v>
+      </c>
+      <c r="B305" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C305" s="1">
+        <v>103</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>5</v>
+      </c>
+      <c r="B306" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C306" s="1">
+        <v>104</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>5</v>
+      </c>
+      <c r="B307" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C307" s="1">
+        <v>105</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>5</v>
+      </c>
+      <c r="B308" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C308" s="1">
+        <v>106</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>5</v>
+      </c>
+      <c r="B309" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C309" s="1">
+        <v>107</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>5</v>
+      </c>
+      <c r="B310" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C310" s="1">
+        <v>101</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>5</v>
+      </c>
+      <c r="B311" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C311" s="1">
+        <v>102</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>5</v>
+      </c>
+      <c r="B312" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C312" s="1">
+        <v>103</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>5</v>
+      </c>
+      <c r="B313" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C313" s="1">
+        <v>104</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>5</v>
+      </c>
+      <c r="B314" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C314" s="1">
+        <v>105</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>5</v>
+      </c>
+      <c r="B315" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C315" s="1">
+        <v>106</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>5</v>
+      </c>
+      <c r="B316" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C316" s="1">
+        <v>107</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C317" s="1">
+        <v>101</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>5</v>
+      </c>
+      <c r="B318" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C318" s="1">
+        <v>102</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>5</v>
+      </c>
+      <c r="B319" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C319" s="1">
+        <v>103</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>5</v>
+      </c>
+      <c r="B320" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C320" s="1">
+        <v>104</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>5</v>
+      </c>
+      <c r="B321" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C321" s="1">
+        <v>105</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>5</v>
+      </c>
+      <c r="B322" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C322" s="1">
+        <v>106</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>5</v>
+      </c>
+      <c r="B323" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C323" s="1">
+        <v>107</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>5</v>
+      </c>
+      <c r="B324" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C324" s="1">
+        <v>101</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>5</v>
+      </c>
+      <c r="B325" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C325" s="1">
+        <v>102</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>5</v>
+      </c>
+      <c r="B326" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C326" s="1">
+        <v>103</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>5</v>
+      </c>
+      <c r="B327" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C327" s="1">
+        <v>104</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>5</v>
+      </c>
+      <c r="B328" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C328" s="1">
+        <v>105</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>5</v>
+      </c>
+      <c r="B329" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C329" s="1">
+        <v>106</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>5</v>
+      </c>
+      <c r="B330" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C330" s="1">
+        <v>107</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>5</v>
+      </c>
+      <c r="B331" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C331" s="1">
+        <v>101</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>5</v>
+      </c>
+      <c r="B332" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C332" s="1">
+        <v>102</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>5</v>
+      </c>
+      <c r="B333" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C333" s="1">
+        <v>103</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>5</v>
+      </c>
+      <c r="B334" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C334" s="1">
+        <v>104</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>5</v>
+      </c>
+      <c r="B335" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C335" s="1">
+        <v>105</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>5</v>
+      </c>
+      <c r="B336" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C336" s="1">
+        <v>106</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>5</v>
+      </c>
+      <c r="B337" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C337" s="1">
+        <v>107</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>5</v>
+      </c>
+      <c r="B338" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C338" s="1">
+        <v>101</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>5</v>
+      </c>
+      <c r="B339" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C339" s="1">
+        <v>102</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>5</v>
+      </c>
+      <c r="B340" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C340" s="1">
+        <v>103</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>5</v>
+      </c>
+      <c r="B341" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C341" s="1">
+        <v>104</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>5</v>
+      </c>
+      <c r="B342" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C342" s="1">
+        <v>105</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>5</v>
+      </c>
+      <c r="B343" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C343" s="1">
+        <v>106</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>5</v>
+      </c>
+      <c r="B344" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C344" s="1">
+        <v>107</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>5</v>
+      </c>
+      <c r="B345" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C345" s="1">
+        <v>101</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>5</v>
+      </c>
+      <c r="B346" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C346" s="1">
+        <v>102</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>5</v>
+      </c>
+      <c r="B347" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C347" s="1">
+        <v>103</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>5</v>
+      </c>
+      <c r="B348" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C348" s="1">
+        <v>104</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>5</v>
+      </c>
+      <c r="B349" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C349" s="1">
+        <v>105</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>5</v>
+      </c>
+      <c r="B350" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C350" s="1">
+        <v>106</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>5</v>
+      </c>
+      <c r="B351" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C351" s="1">
+        <v>107</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>5</v>
+      </c>
+      <c r="B352" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C352" s="1">
+        <v>101</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>5</v>
+      </c>
+      <c r="B353" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C353" s="1">
+        <v>102</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>5</v>
+      </c>
+      <c r="B354" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C354" s="1">
+        <v>103</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>5</v>
+      </c>
+      <c r="B355" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C355" s="1">
+        <v>104</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>5</v>
+      </c>
+      <c r="B356" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C356" s="1">
+        <v>105</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>5</v>
+      </c>
+      <c r="B357" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C357" s="1">
+        <v>106</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>5</v>
+      </c>
+      <c r="B358" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C358" s="1">
+        <v>107</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>5</v>
+      </c>
+      <c r="B359" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C359" s="1">
+        <v>101</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>5</v>
+      </c>
+      <c r="B360" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C360" s="1">
+        <v>102</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>5</v>
+      </c>
+      <c r="B361" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C361" s="1">
+        <v>103</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>5</v>
+      </c>
+      <c r="B362" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C362" s="1">
+        <v>104</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>5</v>
+      </c>
+      <c r="B363" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C363" s="1">
+        <v>105</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>5</v>
+      </c>
+      <c r="B364" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C364" s="1">
+        <v>106</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>5</v>
+      </c>
+      <c r="B365" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C365" s="1">
+        <v>107</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>5</v>
+      </c>
+      <c r="B366" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C366" s="1">
+        <v>101</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>5</v>
+      </c>
+      <c r="B367" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C367" s="1">
+        <v>102</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>5</v>
+      </c>
+      <c r="B368" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C368" s="1">
+        <v>103</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>5</v>
+      </c>
+      <c r="B369" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C369" s="1">
+        <v>104</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>5</v>
+      </c>
+      <c r="B370" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C370" s="1">
+        <v>105</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>5</v>
+      </c>
+      <c r="B371" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C371" s="1">
+        <v>106</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>5</v>
+      </c>
+      <c r="B372" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C372" s="1">
+        <v>107</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>5</v>
+      </c>
+      <c r="B373" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C373" s="1">
+        <v>101</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>5</v>
+      </c>
+      <c r="B374" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C374" s="1">
+        <v>102</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>5</v>
+      </c>
+      <c r="B375" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C375" s="1">
+        <v>103</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>5</v>
+      </c>
+      <c r="B376" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C376" s="1">
+        <v>104</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>5</v>
+      </c>
+      <c r="B377" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C377" s="1">
+        <v>105</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>5</v>
+      </c>
+      <c r="B378" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C378" s="1">
+        <v>106</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>5</v>
+      </c>
+      <c r="B379" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C379" s="1">
+        <v>107</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>5</v>
+      </c>
+      <c r="B380" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C380" s="1">
+        <v>101</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>5</v>
+      </c>
+      <c r="B381" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C381" s="1">
+        <v>102</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>5</v>
+      </c>
+      <c r="B382" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C382" s="1">
+        <v>103</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>5</v>
+      </c>
+      <c r="B383" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C383" s="1">
+        <v>104</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>5</v>
+      </c>
+      <c r="B384" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C384" s="1">
+        <v>105</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>5</v>
+      </c>
+      <c r="B385" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C385" s="1">
+        <v>106</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>5</v>
+      </c>
+      <c r="B386" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C386" s="1">
+        <v>107</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>5</v>
+      </c>
+      <c r="B387" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C387" s="1">
+        <v>101</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>5</v>
+      </c>
+      <c r="B388" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C388" s="1">
+        <v>102</v>
+      </c>
+      <c r="D388" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>5</v>
+      </c>
+      <c r="B389" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C389" s="1">
+        <v>103</v>
+      </c>
+      <c r="D389" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>5</v>
+      </c>
+      <c r="B390" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C390" s="1">
+        <v>104</v>
+      </c>
+      <c r="D390" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>5</v>
+      </c>
+      <c r="B391" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C391" s="1">
+        <v>105</v>
+      </c>
+      <c r="D391" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>5</v>
+      </c>
+      <c r="B392" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C392" s="1">
+        <v>106</v>
+      </c>
+      <c r="D392" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>5</v>
+      </c>
+      <c r="B393" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C393" s="1">
+        <v>107</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>5</v>
+      </c>
+      <c r="B394" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C394" s="1">
+        <v>101</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>5</v>
+      </c>
+      <c r="B395" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C395" s="1">
+        <v>102</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>5</v>
+      </c>
+      <c r="B396" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C396" s="1">
+        <v>103</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>5</v>
+      </c>
+      <c r="B397" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C397" s="1">
+        <v>104</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>5</v>
+      </c>
+      <c r="B398" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C398" s="1">
+        <v>105</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>5</v>
+      </c>
+      <c r="B399" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C399" s="1">
+        <v>106</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>5</v>
+      </c>
+      <c r="B400" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C400" s="1">
+        <v>107</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>5</v>
+      </c>
+      <c r="B401" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C401" s="1">
+        <v>101</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>5</v>
+      </c>
+      <c r="B402" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C402" s="1">
+        <v>102</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>5</v>
+      </c>
+      <c r="B403" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C403" s="1">
+        <v>103</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>5</v>
+      </c>
+      <c r="B404" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C404" s="1">
+        <v>104</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>5</v>
+      </c>
+      <c r="B405" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C405" s="1">
+        <v>105</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>5</v>
+      </c>
+      <c r="B406" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C406" s="1">
+        <v>106</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>5</v>
+      </c>
+      <c r="B407" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C407" s="1">
+        <v>107</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>5</v>
+      </c>
+      <c r="B408" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C408" s="1">
+        <v>101</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>5</v>
+      </c>
+      <c r="B409" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C409" s="1">
+        <v>102</v>
+      </c>
+      <c r="D409" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>5</v>
+      </c>
+      <c r="B410" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C410" s="1">
+        <v>103</v>
+      </c>
+      <c r="D410" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>5</v>
+      </c>
+      <c r="B411" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C411" s="1">
+        <v>104</v>
+      </c>
+      <c r="D411" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>5</v>
+      </c>
+      <c r="B412" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C412" s="1">
+        <v>105</v>
+      </c>
+      <c r="D412" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>5</v>
+      </c>
+      <c r="B413" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C413" s="1">
+        <v>106</v>
+      </c>
+      <c r="D413" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>5</v>
+      </c>
+      <c r="B414" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C414" s="1">
+        <v>107</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>5</v>
+      </c>
+      <c r="B415" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C415" s="1">
+        <v>101</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>5</v>
+      </c>
+      <c r="B416" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C416" s="1">
+        <v>102</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
+        <v>5</v>
+      </c>
+      <c r="B417" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C417" s="1">
+        <v>103</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
+        <v>5</v>
+      </c>
+      <c r="B418" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C418" s="1">
+        <v>104</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
+        <v>5</v>
+      </c>
+      <c r="B419" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C419" s="1">
+        <v>105</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
+        <v>5</v>
+      </c>
+      <c r="B420" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C420" s="1">
+        <v>106</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
+        <v>5</v>
+      </c>
+      <c r="B421" s="1">
+        <v>10015</v>
+      </c>
+      <c r="C421" s="1">
+        <v>107</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
+        <v>5</v>
+      </c>
+      <c r="B422" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C422" s="1">
+        <v>101</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
+        <v>5</v>
+      </c>
+      <c r="B423" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C423" s="1">
+        <v>102</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>5</v>
+      </c>
+      <c r="B424" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C424" s="1">
+        <v>103</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
+        <v>5</v>
+      </c>
+      <c r="B425" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C425" s="1">
+        <v>104</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
+        <v>5</v>
+      </c>
+      <c r="B426" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C426" s="1">
+        <v>105</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
+        <v>5</v>
+      </c>
+      <c r="B427" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C427" s="1">
+        <v>106</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>5</v>
+      </c>
+      <c r="B428" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C428" s="1">
+        <v>107</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
+        <v>5</v>
+      </c>
+      <c r="B429" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C429" s="1">
+        <v>101</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>5</v>
+      </c>
+      <c r="B430" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C430" s="1">
+        <v>102</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
+        <v>5</v>
+      </c>
+      <c r="B431" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C431" s="1">
+        <v>103</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
+        <v>5</v>
+      </c>
+      <c r="B432" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C432" s="1">
+        <v>104</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
+        <v>5</v>
+      </c>
+      <c r="B433" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C433" s="1">
+        <v>105</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
+        <v>5</v>
+      </c>
+      <c r="B434" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C434" s="1">
+        <v>106</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
+        <v>5</v>
+      </c>
+      <c r="B435" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C435" s="1">
+        <v>107</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
+        <v>5</v>
+      </c>
+      <c r="B436" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C436" s="1">
+        <v>101</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
+        <v>5</v>
+      </c>
+      <c r="B437" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C437" s="1">
+        <v>102</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
+        <v>5</v>
+      </c>
+      <c r="B438" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C438" s="1">
+        <v>103</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
+        <v>5</v>
+      </c>
+      <c r="B439" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C439" s="1">
+        <v>104</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
+        <v>5</v>
+      </c>
+      <c r="B440" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C440" s="1">
+        <v>105</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>5</v>
+      </c>
+      <c r="B441" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C441" s="1">
+        <v>106</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>5</v>
+      </c>
+      <c r="B442" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C442" s="1">
+        <v>107</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>5</v>
+      </c>
+      <c r="B443" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C443" s="1">
+        <v>101</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>5</v>
+      </c>
+      <c r="B444" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C444" s="1">
+        <v>102</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>5</v>
+      </c>
+      <c r="B445" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C445" s="1">
+        <v>103</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>5</v>
+      </c>
+      <c r="B446" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C446" s="1">
+        <v>104</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>5</v>
+      </c>
+      <c r="B447" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C447" s="1">
+        <v>105</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>5</v>
+      </c>
+      <c r="B448" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C448" s="1">
+        <v>106</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>5</v>
+      </c>
+      <c r="B449" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C449" s="1">
+        <v>107</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>5</v>
+      </c>
+      <c r="B450" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C450" s="1">
+        <v>101</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>5</v>
+      </c>
+      <c r="B451" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C451" s="1">
+        <v>102</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>5</v>
+      </c>
+      <c r="B452" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C452" s="1">
+        <v>103</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>5</v>
+      </c>
+      <c r="B453" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C453" s="1">
+        <v>104</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>5</v>
+      </c>
+      <c r="B454" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C454" s="1">
+        <v>105</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>5</v>
+      </c>
+      <c r="B455" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C455" s="1">
+        <v>106</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>5</v>
+      </c>
+      <c r="B456" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C456" s="1">
+        <v>107</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>5</v>
+      </c>
+      <c r="B457" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C457" s="1">
+        <v>101</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>5</v>
+      </c>
+      <c r="B458" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C458" s="1">
+        <v>102</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>5</v>
+      </c>
+      <c r="B459" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C459" s="1">
+        <v>103</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>5</v>
+      </c>
+      <c r="B460" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C460" s="1">
+        <v>104</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>5</v>
+      </c>
+      <c r="B461" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C461" s="1">
+        <v>105</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
+        <v>5</v>
+      </c>
+      <c r="B462" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C462" s="1">
+        <v>106</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>5</v>
+      </c>
+      <c r="B463" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C463" s="1">
+        <v>107</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
+        <v>5</v>
+      </c>
+      <c r="B464" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C464" s="1">
+        <v>101</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A465" t="s">
+        <v>5</v>
+      </c>
+      <c r="B465" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C465" s="1">
+        <v>102</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A466" t="s">
+        <v>5</v>
+      </c>
+      <c r="B466" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C466" s="1">
+        <v>103</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A467" t="s">
+        <v>5</v>
+      </c>
+      <c r="B467" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C467" s="1">
+        <v>104</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
+        <v>5</v>
+      </c>
+      <c r="B468" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C468" s="1">
+        <v>105</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
+        <v>5</v>
+      </c>
+      <c r="B469" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C469" s="1">
+        <v>106</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
+        <v>5</v>
+      </c>
+      <c r="B470" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C470" s="1">
+        <v>107</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A471" t="s">
+        <v>5</v>
+      </c>
+      <c r="B471" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C471" s="1">
+        <v>101</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
+        <v>5</v>
+      </c>
+      <c r="B472" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C472" s="1">
+        <v>102</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A473" t="s">
+        <v>5</v>
+      </c>
+      <c r="B473" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C473" s="1">
+        <v>103</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
+        <v>5</v>
+      </c>
+      <c r="B474" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C474" s="1">
+        <v>104</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A475" t="s">
+        <v>5</v>
+      </c>
+      <c r="B475" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C475" s="1">
+        <v>105</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A476" t="s">
+        <v>5</v>
+      </c>
+      <c r="B476" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C476" s="1">
+        <v>106</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A477" t="s">
+        <v>5</v>
+      </c>
+      <c r="B477" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C477" s="1">
+        <v>107</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A478" t="s">
+        <v>5</v>
+      </c>
+      <c r="B478" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C478" s="1">
+        <v>101</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A479" t="s">
+        <v>5</v>
+      </c>
+      <c r="B479" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C479" s="1">
+        <v>102</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A480" t="s">
+        <v>5</v>
+      </c>
+      <c r="B480" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C480" s="1">
+        <v>103</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A481" t="s">
+        <v>5</v>
+      </c>
+      <c r="B481" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C481" s="1">
+        <v>104</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A482" t="s">
+        <v>5</v>
+      </c>
+      <c r="B482" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C482" s="1">
+        <v>105</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A483" t="s">
+        <v>5</v>
+      </c>
+      <c r="B483" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C483" s="1">
+        <v>106</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A484" t="s">
+        <v>5</v>
+      </c>
+      <c r="B484" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C484" s="1">
+        <v>107</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A485" t="s">
+        <v>5</v>
+      </c>
+      <c r="B485" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C485" s="1">
+        <v>101</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A486" t="s">
+        <v>5</v>
+      </c>
+      <c r="B486" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C486" s="1">
+        <v>102</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A487" t="s">
+        <v>5</v>
+      </c>
+      <c r="B487" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C487" s="1">
+        <v>103</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A488" t="s">
+        <v>5</v>
+      </c>
+      <c r="B488" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C488" s="1">
+        <v>104</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A489" t="s">
+        <v>5</v>
+      </c>
+      <c r="B489" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C489" s="1">
+        <v>105</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A490" t="s">
+        <v>5</v>
+      </c>
+      <c r="B490" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C490" s="1">
+        <v>106</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A491" t="s">
+        <v>5</v>
+      </c>
+      <c r="B491" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C491" s="1">
+        <v>107</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A492" t="s">
+        <v>5</v>
+      </c>
+      <c r="B492" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C492" s="1">
+        <v>101</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A493" t="s">
+        <v>5</v>
+      </c>
+      <c r="B493" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C493" s="1">
+        <v>102</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A494" t="s">
+        <v>5</v>
+      </c>
+      <c r="B494" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C494" s="1">
+        <v>103</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A495" t="s">
+        <v>5</v>
+      </c>
+      <c r="B495" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C495" s="1">
+        <v>104</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A496" t="s">
+        <v>5</v>
+      </c>
+      <c r="B496" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C496" s="1">
+        <v>105</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A497" t="s">
+        <v>5</v>
+      </c>
+      <c r="B497" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C497" s="1">
+        <v>106</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A498" t="s">
+        <v>5</v>
+      </c>
+      <c r="B498" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C498" s="1">
+        <v>107</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A499" t="s">
+        <v>5</v>
+      </c>
+      <c r="B499" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C499" s="1">
+        <v>101</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D500" s="4"/>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D501" s="4"/>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D502" s="4"/>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D503" s="4"/>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D504" s="4"/>
+    </row>
+    <row r="521" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D521" s="4"/>
+    </row>
+    <row r="522" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D522" s="4"/>
+    </row>
+    <row r="523" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D523" s="4"/>
+    </row>
+    <row r="524" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D524" s="4"/>
+    </row>
+    <row r="525" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D525" s="4"/>
+    </row>
+    <row r="612" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D612" s="4"/>
+    </row>
+    <row r="613" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D613" s="4"/>
+    </row>
+    <row r="614" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D614" s="4"/>
+    </row>
+    <row r="615" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D615" s="4"/>
+    </row>
+    <row r="616" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D616" s="4"/>
+    </row>
+    <row r="633" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D633" s="4"/>
+    </row>
+    <row r="634" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D634" s="4"/>
+    </row>
+    <row r="635" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D635" s="4"/>
+    </row>
+    <row r="636" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D636" s="4"/>
+    </row>
+    <row r="637" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D637" s="4"/>
+    </row>
+    <row r="724" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D724" s="4"/>
+    </row>
+    <row r="725" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D725" s="4"/>
+    </row>
+    <row r="726" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D726" s="4"/>
+    </row>
+    <row r="727" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D727" s="4"/>
+    </row>
+    <row r="728" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D728" s="4"/>
+    </row>
+    <row r="745" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D745" s="4"/>
+    </row>
+    <row r="746" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D746" s="4"/>
+    </row>
+    <row r="747" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D747" s="4"/>
+    </row>
+    <row r="748" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D748" s="4"/>
+    </row>
+    <row r="749" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D749" s="4"/>
+    </row>
+    <row r="836" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D836" s="4"/>
+    </row>
+    <row r="837" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D837" s="4"/>
+    </row>
+    <row r="838" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D838" s="4"/>
+    </row>
+    <row r="839" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D839" s="4"/>
+    </row>
+    <row r="840" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D840" s="4"/>
+    </row>
+    <row r="857" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D857" s="4"/>
+    </row>
+    <row r="858" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D858" s="4"/>
+    </row>
+    <row r="859" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D859" s="4"/>
+    </row>
+    <row r="860" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D860" s="4"/>
+    </row>
+    <row r="861" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D861" s="4"/>
+    </row>
+    <row r="948" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D948" s="4"/>
+    </row>
+    <row r="949" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D949" s="4"/>
+    </row>
+    <row r="950" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D950" s="4"/>
+    </row>
+    <row r="951" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D951" s="4"/>
+    </row>
+    <row r="952" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D952" s="4"/>
+    </row>
+    <row r="969" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D969" s="4"/>
+    </row>
+    <row r="970" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D970" s="4"/>
+    </row>
+    <row r="971" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D971" s="4"/>
+    </row>
+    <row r="972" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D972" s="4"/>
+    </row>
+    <row r="973" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D973" s="4"/>
+    </row>
+    <row r="1060" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1060" s="4"/>
+    </row>
+    <row r="1061" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1061" s="4"/>
+    </row>
+    <row r="1062" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1062" s="4"/>
+    </row>
+    <row r="1063" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1063" s="4"/>
+    </row>
+    <row r="1064" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1064" s="4"/>
+    </row>
+    <row r="1081" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1081" s="4"/>
+    </row>
+    <row r="1082" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1082" s="4"/>
+    </row>
+    <row r="1083" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1083" s="4"/>
+    </row>
+    <row r="1084" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1084" s="4"/>
+    </row>
+    <row r="1085" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1085" s="4"/>
+    </row>
+    <row r="1172" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1172" s="4"/>
+    </row>
+    <row r="1173" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1173" s="4"/>
+    </row>
+    <row r="1174" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1174" s="4"/>
+    </row>
+    <row r="1175" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1175" s="4"/>
+    </row>
+    <row r="1176" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1176" s="4"/>
+    </row>
+    <row r="1193" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1193" s="4"/>
+    </row>
+    <row r="1194" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1194" s="4"/>
+    </row>
+    <row r="1195" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1195" s="4"/>
+    </row>
+    <row r="1196" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1196" s="4"/>
+    </row>
+    <row r="1197" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1197" s="4"/>
+    </row>
+    <row r="1284" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1284" s="4"/>
+    </row>
+    <row r="1285" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1285" s="4"/>
+    </row>
+    <row r="1286" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1286" s="4"/>
+    </row>
+    <row r="1287" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1287" s="4"/>
+    </row>
+    <row r="1288" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1288" s="4"/>
+    </row>
+    <row r="1305" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1305" s="4"/>
+    </row>
+    <row r="1306" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1306" s="4"/>
+    </row>
+    <row r="1307" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1307" s="4"/>
+    </row>
+    <row r="1308" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1308" s="4"/>
+    </row>
+    <row r="1309" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1309" s="4"/>
+    </row>
+    <row r="1396" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1396" s="4"/>
+    </row>
+    <row r="1397" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1397" s="4"/>
+    </row>
+    <row r="1398" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1398" s="4"/>
+    </row>
+    <row r="1399" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1399" s="4"/>
+    </row>
+    <row r="1400" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1400" s="4"/>
+    </row>
+    <row r="1417" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1417" s="4"/>
+    </row>
+    <row r="1418" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1418" s="4"/>
+    </row>
+    <row r="1419" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1419" s="4"/>
+    </row>
+    <row r="1420" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1420" s="4"/>
+    </row>
+    <row r="1421" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1421" s="4"/>
+    </row>
+    <row r="1508" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1508" s="4"/>
+    </row>
+    <row r="1509" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1509" s="4"/>
+    </row>
+    <row r="1510" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1510" s="4"/>
+    </row>
+    <row r="1511" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1511" s="4"/>
+    </row>
+    <row r="1512" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1512" s="4"/>
+    </row>
+    <row r="1529" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1529" s="4"/>
+    </row>
+    <row r="1530" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1530" s="4"/>
+    </row>
+    <row r="1531" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1531" s="4"/>
+    </row>
+    <row r="1532" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1532" s="4"/>
+    </row>
+    <row r="1533" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1533" s="4"/>
+    </row>
+    <row r="1620" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1620" s="4"/>
+    </row>
+    <row r="1621" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1621" s="4"/>
+    </row>
+    <row r="1622" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1622" s="4"/>
+    </row>
+    <row r="1623" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1623" s="4"/>
+    </row>
+    <row r="1624" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1624" s="4"/>
+    </row>
+    <row r="1641" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1641" s="4"/>
+    </row>
+    <row r="1642" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1642" s="4"/>
+    </row>
+    <row r="1643" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1643" s="4"/>
+    </row>
+    <row r="1644" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1644" s="4"/>
+    </row>
+    <row r="1645" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1645" s="4"/>
+    </row>
+    <row r="1732" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1732" s="4"/>
+    </row>
+    <row r="1733" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1733" s="4"/>
+    </row>
+    <row r="1734" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1734" s="4"/>
+    </row>
+    <row r="1735" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1735" s="4"/>
+    </row>
+    <row r="1736" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1736" s="4"/>
+    </row>
+    <row r="1753" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1753" s="4"/>
+    </row>
+    <row r="1754" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1754" s="4"/>
+    </row>
+    <row r="1755" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1755" s="4"/>
+    </row>
+    <row r="1756" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1756" s="4"/>
+    </row>
+    <row r="1757" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D1757" s="4"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>